--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_360_購買プロファイル・オプションの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_360_購買プロファイル・オプションの管理.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\PO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19801～19900\E_本稼動_19870【会計】四半期アップデート対応購買PDF添付\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1236" windowWidth="14712" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="405" yWindow="3030" windowWidth="14715" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
     <sheet name="PO_360" sheetId="34" r:id="rId2"/>
+    <sheet name="PO_360_2" sheetId="35" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -48,379 +48,750 @@
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_1900_01_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1900_01_09">#REF!</definedName>
+    <definedName name="_1998_01_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_01">#REF!</definedName>
+    <definedName name="_1998_01_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_02">#REF!</definedName>
+    <definedName name="_1998_01_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_03">#REF!</definedName>
+    <definedName name="_1998_01_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_04">#REF!</definedName>
+    <definedName name="_1998_01_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_05">#REF!</definedName>
+    <definedName name="_1998_01_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_06">#REF!</definedName>
+    <definedName name="_1998_01_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_07">#REF!</definedName>
+    <definedName name="_1998_01_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_08">#REF!</definedName>
+    <definedName name="_1998_01_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_09">#REF!</definedName>
+    <definedName name="_1998_01_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_10">#REF!</definedName>
+    <definedName name="_1998_01_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_11">#REF!</definedName>
+    <definedName name="_1998_01_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_12">#REF!</definedName>
+    <definedName name="_1998_01_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_13">#REF!</definedName>
+    <definedName name="_1998_01_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_14">#REF!</definedName>
+    <definedName name="_1998_01_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_15">#REF!</definedName>
+    <definedName name="_1998_01_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_16">#REF!</definedName>
+    <definedName name="_1998_01_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_17">#REF!</definedName>
+    <definedName name="_1998_01_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_18">#REF!</definedName>
+    <definedName name="_1998_01_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_19">#REF!</definedName>
+    <definedName name="_1998_01_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_20">#REF!</definedName>
+    <definedName name="_1998_01_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_21">#REF!</definedName>
+    <definedName name="_1998_01_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_22">#REF!</definedName>
+    <definedName name="_1998_01_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_23">#REF!</definedName>
+    <definedName name="_1998_01_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_24">#REF!</definedName>
+    <definedName name="_1998_01_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_25">#REF!</definedName>
+    <definedName name="_1998_01_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_26">#REF!</definedName>
+    <definedName name="_1998_01_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_27">#REF!</definedName>
+    <definedName name="_1998_01_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_28">#REF!</definedName>
+    <definedName name="_1998_01_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_29">#REF!</definedName>
+    <definedName name="_1998_01_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_30">#REF!</definedName>
+    <definedName name="_1998_01_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_01_31">#REF!</definedName>
+    <definedName name="_1998_02_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_01">#REF!</definedName>
+    <definedName name="_1998_02_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_02">#REF!</definedName>
+    <definedName name="_1998_02_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_03">#REF!</definedName>
+    <definedName name="_1998_02_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_04">#REF!</definedName>
+    <definedName name="_1998_02_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_05">#REF!</definedName>
+    <definedName name="_1998_02_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_06">#REF!</definedName>
+    <definedName name="_1998_02_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_07">#REF!</definedName>
+    <definedName name="_1998_02_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_08">#REF!</definedName>
+    <definedName name="_1998_02_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_09">#REF!</definedName>
+    <definedName name="_1998_02_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_10">#REF!</definedName>
+    <definedName name="_1998_02_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_11">#REF!</definedName>
+    <definedName name="_1998_02_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_12">#REF!</definedName>
+    <definedName name="_1998_02_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_13">#REF!</definedName>
+    <definedName name="_1998_02_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_14">#REF!</definedName>
+    <definedName name="_1998_02_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_15">#REF!</definedName>
+    <definedName name="_1998_02_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_16">#REF!</definedName>
+    <definedName name="_1998_02_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_17">#REF!</definedName>
+    <definedName name="_1998_02_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_18">#REF!</definedName>
+    <definedName name="_1998_02_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_19">#REF!</definedName>
+    <definedName name="_1998_02_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_20">#REF!</definedName>
+    <definedName name="_1998_02_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_21">#REF!</definedName>
+    <definedName name="_1998_02_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_22">#REF!</definedName>
+    <definedName name="_1998_02_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_23">#REF!</definedName>
+    <definedName name="_1998_02_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_24">#REF!</definedName>
+    <definedName name="_1998_02_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_25">#REF!</definedName>
+    <definedName name="_1998_02_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_26">#REF!</definedName>
+    <definedName name="_1998_02_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_27">#REF!</definedName>
+    <definedName name="_1998_02_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_02_28">#REF!</definedName>
+    <definedName name="_1998_03_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_01">#REF!</definedName>
+    <definedName name="_1998_03_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_02">#REF!</definedName>
+    <definedName name="_1998_03_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_03">#REF!</definedName>
+    <definedName name="_1998_03_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_04">#REF!</definedName>
+    <definedName name="_1998_03_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_05">#REF!</definedName>
+    <definedName name="_1998_03_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_06">#REF!</definedName>
+    <definedName name="_1998_03_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_07">#REF!</definedName>
+    <definedName name="_1998_03_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_08">#REF!</definedName>
+    <definedName name="_1998_03_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_09">#REF!</definedName>
+    <definedName name="_1998_03_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_10">#REF!</definedName>
+    <definedName name="_1998_03_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_11">#REF!</definedName>
+    <definedName name="_1998_03_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_12">#REF!</definedName>
+    <definedName name="_1998_03_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_13">#REF!</definedName>
+    <definedName name="_1998_03_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_14">#REF!</definedName>
+    <definedName name="_1998_03_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_15">#REF!</definedName>
+    <definedName name="_1998_03_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_16">#REF!</definedName>
+    <definedName name="_1998_03_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_17">#REF!</definedName>
+    <definedName name="_1998_03_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_18">#REF!</definedName>
+    <definedName name="_1998_03_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_19">#REF!</definedName>
+    <definedName name="_1998_03_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_20">#REF!</definedName>
+    <definedName name="_1998_03_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_21">#REF!</definedName>
+    <definedName name="_1998_03_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_22">#REF!</definedName>
+    <definedName name="_1998_03_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_23">#REF!</definedName>
+    <definedName name="_1998_03_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_24">#REF!</definedName>
+    <definedName name="_1998_03_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_25">#REF!</definedName>
+    <definedName name="_1998_03_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_26">#REF!</definedName>
+    <definedName name="_1998_03_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_27">#REF!</definedName>
+    <definedName name="_1998_03_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_28">#REF!</definedName>
+    <definedName name="_1998_03_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_29">#REF!</definedName>
+    <definedName name="_1998_03_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_30">#REF!</definedName>
+    <definedName name="_1998_03_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_03_31">#REF!</definedName>
+    <definedName name="_1998_04_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_01">#REF!</definedName>
+    <definedName name="_1998_04_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_02">#REF!</definedName>
+    <definedName name="_1998_04_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_03">#REF!</definedName>
+    <definedName name="_1998_04_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_04">#REF!</definedName>
+    <definedName name="_1998_04_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_05">#REF!</definedName>
+    <definedName name="_1998_04_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_06">#REF!</definedName>
+    <definedName name="_1998_04_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_07">#REF!</definedName>
+    <definedName name="_1998_04_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_08">#REF!</definedName>
+    <definedName name="_1998_04_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_09">#REF!</definedName>
+    <definedName name="_1998_04_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_10">#REF!</definedName>
+    <definedName name="_1998_04_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_11">#REF!</definedName>
+    <definedName name="_1998_04_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_12">#REF!</definedName>
+    <definedName name="_1998_04_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_13">#REF!</definedName>
+    <definedName name="_1998_04_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_14">#REF!</definedName>
+    <definedName name="_1998_04_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_15">#REF!</definedName>
+    <definedName name="_1998_04_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_16">#REF!</definedName>
+    <definedName name="_1998_04_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_17">#REF!</definedName>
+    <definedName name="_1998_04_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_18">#REF!</definedName>
+    <definedName name="_1998_04_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_19">#REF!</definedName>
+    <definedName name="_1998_04_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_20">#REF!</definedName>
+    <definedName name="_1998_04_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_21">#REF!</definedName>
+    <definedName name="_1998_04_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_22">#REF!</definedName>
+    <definedName name="_1998_04_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_23">#REF!</definedName>
+    <definedName name="_1998_04_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_24">#REF!</definedName>
+    <definedName name="_1998_04_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_25">#REF!</definedName>
+    <definedName name="_1998_04_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_26">#REF!</definedName>
+    <definedName name="_1998_04_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_27">#REF!</definedName>
+    <definedName name="_1998_04_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_28">#REF!</definedName>
+    <definedName name="_1998_04_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_29">#REF!</definedName>
+    <definedName name="_1998_04_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_04_30">#REF!</definedName>
+    <definedName name="_1998_05_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_01">#REF!</definedName>
+    <definedName name="_1998_05_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_02">#REF!</definedName>
+    <definedName name="_1998_05_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_03">#REF!</definedName>
+    <definedName name="_1998_05_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_04">#REF!</definedName>
+    <definedName name="_1998_05_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_05">#REF!</definedName>
+    <definedName name="_1998_05_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_06">#REF!</definedName>
+    <definedName name="_1998_05_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_07">#REF!</definedName>
+    <definedName name="_1998_05_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_08">#REF!</definedName>
+    <definedName name="_1998_05_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_09">#REF!</definedName>
+    <definedName name="_1998_05_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_10">#REF!</definedName>
+    <definedName name="_1998_05_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_11">#REF!</definedName>
+    <definedName name="_1998_05_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_12">#REF!</definedName>
+    <definedName name="_1998_05_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_13">#REF!</definedName>
+    <definedName name="_1998_05_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_14">#REF!</definedName>
+    <definedName name="_1998_05_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_15">#REF!</definedName>
+    <definedName name="_1998_05_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_16">#REF!</definedName>
+    <definedName name="_1998_05_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_17">#REF!</definedName>
+    <definedName name="_1998_05_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_18">#REF!</definedName>
+    <definedName name="_1998_05_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_19">#REF!</definedName>
+    <definedName name="_1998_05_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_20">#REF!</definedName>
+    <definedName name="_1998_05_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_21">#REF!</definedName>
+    <definedName name="_1998_05_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_22">#REF!</definedName>
+    <definedName name="_1998_05_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_23">#REF!</definedName>
+    <definedName name="_1998_05_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_24">#REF!</definedName>
+    <definedName name="_1998_05_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_25">#REF!</definedName>
+    <definedName name="_1998_05_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_26">#REF!</definedName>
+    <definedName name="_1998_05_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_27">#REF!</definedName>
+    <definedName name="_1998_05_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_28">#REF!</definedName>
+    <definedName name="_1998_05_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_29">#REF!</definedName>
+    <definedName name="_1998_05_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_30">#REF!</definedName>
+    <definedName name="_1998_05_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_05_31">#REF!</definedName>
+    <definedName name="_1998_06_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_01">#REF!</definedName>
+    <definedName name="_1998_06_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_02">#REF!</definedName>
+    <definedName name="_1998_06_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_03">#REF!</definedName>
+    <definedName name="_1998_06_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_04">#REF!</definedName>
+    <definedName name="_1998_06_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_05">#REF!</definedName>
+    <definedName name="_1998_06_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_06">#REF!</definedName>
+    <definedName name="_1998_06_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_07">#REF!</definedName>
+    <definedName name="_1998_06_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_08">#REF!</definedName>
+    <definedName name="_1998_06_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_09">#REF!</definedName>
+    <definedName name="_1998_06_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_10">#REF!</definedName>
+    <definedName name="_1998_06_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_11">#REF!</definedName>
+    <definedName name="_1998_06_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_12">#REF!</definedName>
+    <definedName name="_1998_06_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_13">#REF!</definedName>
+    <definedName name="_1998_06_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_14">#REF!</definedName>
+    <definedName name="_1998_06_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_15">#REF!</definedName>
+    <definedName name="_1998_06_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_16">#REF!</definedName>
+    <definedName name="_1998_06_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_17">#REF!</definedName>
+    <definedName name="_1998_06_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_18">#REF!</definedName>
+    <definedName name="_1998_06_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_19">#REF!</definedName>
+    <definedName name="_1998_06_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_20">#REF!</definedName>
+    <definedName name="_1998_06_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_21">#REF!</definedName>
+    <definedName name="_1998_06_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_22">#REF!</definedName>
+    <definedName name="_1998_06_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_23">#REF!</definedName>
+    <definedName name="_1998_06_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_24">#REF!</definedName>
+    <definedName name="_1998_06_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_25">#REF!</definedName>
+    <definedName name="_1998_06_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_26">#REF!</definedName>
+    <definedName name="_1998_06_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_27">#REF!</definedName>
+    <definedName name="_1998_06_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_28">#REF!</definedName>
+    <definedName name="_1998_06_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_29">#REF!</definedName>
+    <definedName name="_1998_06_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_06_30">#REF!</definedName>
+    <definedName name="_1998_07_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_01">#REF!</definedName>
+    <definedName name="_1998_07_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_02">#REF!</definedName>
+    <definedName name="_1998_07_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_03">#REF!</definedName>
+    <definedName name="_1998_07_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_04">#REF!</definedName>
+    <definedName name="_1998_07_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_05">#REF!</definedName>
+    <definedName name="_1998_07_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_06">#REF!</definedName>
+    <definedName name="_1998_07_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_07">#REF!</definedName>
+    <definedName name="_1998_07_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_08">#REF!</definedName>
+    <definedName name="_1998_07_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_09">#REF!</definedName>
+    <definedName name="_1998_07_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_10">#REF!</definedName>
+    <definedName name="_1998_07_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_11">#REF!</definedName>
+    <definedName name="_1998_07_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_12">#REF!</definedName>
+    <definedName name="_1998_07_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_13">#REF!</definedName>
+    <definedName name="_1998_07_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_14">#REF!</definedName>
+    <definedName name="_1998_07_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_15">#REF!</definedName>
+    <definedName name="_1998_07_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_16">#REF!</definedName>
+    <definedName name="_1998_07_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_17">#REF!</definedName>
+    <definedName name="_1998_07_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_18">#REF!</definedName>
+    <definedName name="_1998_07_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_19">#REF!</definedName>
+    <definedName name="_1998_07_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_20">#REF!</definedName>
+    <definedName name="_1998_07_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_21">#REF!</definedName>
+    <definedName name="_1998_07_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_22">#REF!</definedName>
+    <definedName name="_1998_07_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_23">#REF!</definedName>
+    <definedName name="_1998_07_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_24">#REF!</definedName>
+    <definedName name="_1998_07_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_25">#REF!</definedName>
+    <definedName name="_1998_07_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_26">#REF!</definedName>
+    <definedName name="_1998_07_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_27">#REF!</definedName>
+    <definedName name="_1998_07_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_28">#REF!</definedName>
+    <definedName name="_1998_07_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_29">#REF!</definedName>
+    <definedName name="_1998_07_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_30">#REF!</definedName>
+    <definedName name="_1998_07_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_07_31">#REF!</definedName>
+    <definedName name="_1998_08_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_01">#REF!</definedName>
+    <definedName name="_1998_08_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_02">#REF!</definedName>
+    <definedName name="_1998_08_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_03">#REF!</definedName>
+    <definedName name="_1998_08_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_04">#REF!</definedName>
+    <definedName name="_1998_08_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_05">#REF!</definedName>
+    <definedName name="_1998_08_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_06">#REF!</definedName>
+    <definedName name="_1998_08_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_07">#REF!</definedName>
+    <definedName name="_1998_08_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_08">#REF!</definedName>
+    <definedName name="_1998_08_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_09">#REF!</definedName>
+    <definedName name="_1998_08_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_10">#REF!</definedName>
+    <definedName name="_1998_08_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_11">#REF!</definedName>
+    <definedName name="_1998_08_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_12">#REF!</definedName>
+    <definedName name="_1998_08_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_13">#REF!</definedName>
+    <definedName name="_1998_08_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_14">#REF!</definedName>
+    <definedName name="_1998_08_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_15">#REF!</definedName>
+    <definedName name="_1998_08_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_16">#REF!</definedName>
+    <definedName name="_1998_08_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_17">#REF!</definedName>
+    <definedName name="_1998_08_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_18">#REF!</definedName>
+    <definedName name="_1998_08_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_19">#REF!</definedName>
+    <definedName name="_1998_08_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_20">#REF!</definedName>
+    <definedName name="_1998_08_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_21">#REF!</definedName>
+    <definedName name="_1998_08_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_22">#REF!</definedName>
+    <definedName name="_1998_08_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_23">#REF!</definedName>
+    <definedName name="_1998_08_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_24">#REF!</definedName>
+    <definedName name="_1998_08_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_25">#REF!</definedName>
+    <definedName name="_1998_08_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_26">#REF!</definedName>
+    <definedName name="_1998_08_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_27">#REF!</definedName>
+    <definedName name="_1998_08_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_28">#REF!</definedName>
+    <definedName name="_1998_08_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_29">#REF!</definedName>
+    <definedName name="_1998_08_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_30">#REF!</definedName>
+    <definedName name="_1998_08_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_08_31">#REF!</definedName>
+    <definedName name="_1998_09_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_01">#REF!</definedName>
+    <definedName name="_1998_09_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_02">#REF!</definedName>
+    <definedName name="_1998_09_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_03">#REF!</definedName>
+    <definedName name="_1998_09_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_04">#REF!</definedName>
+    <definedName name="_1998_09_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_05">#REF!</definedName>
+    <definedName name="_1998_09_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_06">#REF!</definedName>
+    <definedName name="_1998_09_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_07">#REF!</definedName>
+    <definedName name="_1998_09_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_08">#REF!</definedName>
+    <definedName name="_1998_09_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_09">#REF!</definedName>
+    <definedName name="_1998_09_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_10">#REF!</definedName>
+    <definedName name="_1998_09_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_11">#REF!</definedName>
+    <definedName name="_1998_09_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_12">#REF!</definedName>
+    <definedName name="_1998_09_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_13">#REF!</definedName>
+    <definedName name="_1998_09_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_14">#REF!</definedName>
+    <definedName name="_1998_09_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_15">#REF!</definedName>
+    <definedName name="_1998_09_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_16">#REF!</definedName>
+    <definedName name="_1998_09_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_17">#REF!</definedName>
+    <definedName name="_1998_09_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_18">#REF!</definedName>
+    <definedName name="_1998_09_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_19">#REF!</definedName>
+    <definedName name="_1998_09_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_20">#REF!</definedName>
+    <definedName name="_1998_09_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_21">#REF!</definedName>
+    <definedName name="_1998_09_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_22">#REF!</definedName>
+    <definedName name="_1998_09_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_23">#REF!</definedName>
+    <definedName name="_1998_09_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_24">#REF!</definedName>
+    <definedName name="_1998_09_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_25">#REF!</definedName>
+    <definedName name="_1998_09_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_26">#REF!</definedName>
+    <definedName name="_1998_09_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_27">#REF!</definedName>
+    <definedName name="_1998_09_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_28">#REF!</definedName>
+    <definedName name="_1998_09_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_29">#REF!</definedName>
+    <definedName name="_1998_09_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_09_30">#REF!</definedName>
+    <definedName name="_1998_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_1_1">#REF!</definedName>
+    <definedName name="_1998_10_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_01">#REF!</definedName>
+    <definedName name="_1998_10_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_02">#REF!</definedName>
+    <definedName name="_1998_10_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_03">#REF!</definedName>
+    <definedName name="_1998_10_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_04">#REF!</definedName>
+    <definedName name="_1998_10_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_05">#REF!</definedName>
+    <definedName name="_1998_10_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_06">#REF!</definedName>
+    <definedName name="_1998_10_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_07">#REF!</definedName>
+    <definedName name="_1998_10_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_08">#REF!</definedName>
+    <definedName name="_1998_10_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_09">#REF!</definedName>
+    <definedName name="_1998_10_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_10">#REF!</definedName>
+    <definedName name="_1998_10_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_11">#REF!</definedName>
+    <definedName name="_1998_10_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_12">#REF!</definedName>
+    <definedName name="_1998_10_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_13">#REF!</definedName>
+    <definedName name="_1998_10_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_14">#REF!</definedName>
+    <definedName name="_1998_10_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_15">#REF!</definedName>
+    <definedName name="_1998_10_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_16">#REF!</definedName>
+    <definedName name="_1998_10_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_17">#REF!</definedName>
+    <definedName name="_1998_10_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_18">#REF!</definedName>
+    <definedName name="_1998_10_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_19">#REF!</definedName>
+    <definedName name="_1998_10_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_20">#REF!</definedName>
+    <definedName name="_1998_10_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_21">#REF!</definedName>
+    <definedName name="_1998_10_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_22">#REF!</definedName>
+    <definedName name="_1998_10_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_23">#REF!</definedName>
+    <definedName name="_1998_10_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_24">#REF!</definedName>
+    <definedName name="_1998_10_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_25">#REF!</definedName>
+    <definedName name="_1998_10_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_26">#REF!</definedName>
+    <definedName name="_1998_10_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_27">#REF!</definedName>
+    <definedName name="_1998_10_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_28">#REF!</definedName>
+    <definedName name="_1998_10_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_29">#REF!</definedName>
+    <definedName name="_1998_10_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_30">#REF!</definedName>
+    <definedName name="_1998_10_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_10_31">#REF!</definedName>
+    <definedName name="_1998_11_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_01">#REF!</definedName>
+    <definedName name="_1998_11_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_02">#REF!</definedName>
+    <definedName name="_1998_11_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_03">#REF!</definedName>
+    <definedName name="_1998_11_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_04">#REF!</definedName>
+    <definedName name="_1998_11_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_05">#REF!</definedName>
+    <definedName name="_1998_11_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_06">#REF!</definedName>
+    <definedName name="_1998_11_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_07">#REF!</definedName>
+    <definedName name="_1998_11_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_08">#REF!</definedName>
+    <definedName name="_1998_11_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_09">#REF!</definedName>
+    <definedName name="_1998_11_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_10">#REF!</definedName>
+    <definedName name="_1998_11_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_11">#REF!</definedName>
+    <definedName name="_1998_11_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_12">#REF!</definedName>
+    <definedName name="_1998_11_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_13">#REF!</definedName>
+    <definedName name="_1998_11_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_14">#REF!</definedName>
+    <definedName name="_1998_11_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_15">#REF!</definedName>
+    <definedName name="_1998_11_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_16">#REF!</definedName>
+    <definedName name="_1998_11_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_17">#REF!</definedName>
+    <definedName name="_1998_11_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_18">#REF!</definedName>
+    <definedName name="_1998_11_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_19">#REF!</definedName>
+    <definedName name="_1998_11_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_20">#REF!</definedName>
+    <definedName name="_1998_11_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_21">#REF!</definedName>
+    <definedName name="_1998_11_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_22">#REF!</definedName>
+    <definedName name="_1998_11_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_23">#REF!</definedName>
+    <definedName name="_1998_11_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_24">#REF!</definedName>
+    <definedName name="_1998_11_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_25">#REF!</definedName>
+    <definedName name="_1998_11_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_26">#REF!</definedName>
+    <definedName name="_1998_11_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_27">#REF!</definedName>
+    <definedName name="_1998_11_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_28">#REF!</definedName>
+    <definedName name="_1998_11_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_29">#REF!</definedName>
+    <definedName name="_1998_11_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_11_30">#REF!</definedName>
+    <definedName name="_1998_12_01" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_01">#REF!</definedName>
+    <definedName name="_1998_12_02" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_02">#REF!</definedName>
+    <definedName name="_1998_12_03" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_03">#REF!</definedName>
+    <definedName name="_1998_12_04" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_04">#REF!</definedName>
+    <definedName name="_1998_12_05" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_05">#REF!</definedName>
+    <definedName name="_1998_12_06" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_06">#REF!</definedName>
+    <definedName name="_1998_12_07" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_07">#REF!</definedName>
+    <definedName name="_1998_12_08" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_08">#REF!</definedName>
+    <definedName name="_1998_12_09" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_09">#REF!</definedName>
+    <definedName name="_1998_12_10" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_10">#REF!</definedName>
+    <definedName name="_1998_12_11" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_11">#REF!</definedName>
+    <definedName name="_1998_12_12" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_12">#REF!</definedName>
+    <definedName name="_1998_12_13" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_13">#REF!</definedName>
+    <definedName name="_1998_12_14" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_14">#REF!</definedName>
+    <definedName name="_1998_12_15" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_15">#REF!</definedName>
+    <definedName name="_1998_12_16" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_16">#REF!</definedName>
+    <definedName name="_1998_12_17" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_17">#REF!</definedName>
+    <definedName name="_1998_12_18" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_18">#REF!</definedName>
+    <definedName name="_1998_12_19" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_19">#REF!</definedName>
+    <definedName name="_1998_12_20" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_20">#REF!</definedName>
+    <definedName name="_1998_12_21" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_21">#REF!</definedName>
+    <definedName name="_1998_12_22" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_22">#REF!</definedName>
+    <definedName name="_1998_12_23" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_23">#REF!</definedName>
+    <definedName name="_1998_12_24" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_24">#REF!</definedName>
+    <definedName name="_1998_12_25" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_25">#REF!</definedName>
+    <definedName name="_1998_12_26" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_26">#REF!</definedName>
+    <definedName name="_1998_12_27" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_27">#REF!</definedName>
+    <definedName name="_1998_12_28" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_28">#REF!</definedName>
+    <definedName name="_1998_12_29" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_29">#REF!</definedName>
+    <definedName name="_1998_12_30" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_30">#REF!</definedName>
+    <definedName name="_1998_12_31" localSheetId="2">#REF!</definedName>
     <definedName name="_1998_12_31">#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill2" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_Fill2" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill2" hidden="1">[3]責準明細表!#REF!</definedName>
+    <definedName name="_FND2" localSheetId="2">#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
     <definedName name="_LOV1">[4]Sheet2!$B$2:$B$5</definedName>
     <definedName name="_LOV2">[4]Sheet2!$B$8:$B$11</definedName>
@@ -429,196 +800,365 @@
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X2" hidden="1">#REF!</definedName>
+    <definedName name="①EBSカラム" localSheetId="2">#REF!</definedName>
     <definedName name="①EBSカラム">#REF!</definedName>
+    <definedName name="①NO" localSheetId="2">#REF!</definedName>
     <definedName name="①NO">#REF!</definedName>
+    <definedName name="①項目名" localSheetId="2">#REF!</definedName>
     <definedName name="①項目名">#REF!</definedName>
+    <definedName name="①説明" localSheetId="2">#REF!</definedName>
     <definedName name="①説明">#REF!</definedName>
+    <definedName name="①入力" localSheetId="2">#REF!</definedName>
     <definedName name="①入力">#REF!</definedName>
+    <definedName name="①矢EBSカラム" localSheetId="2">#REF!</definedName>
     <definedName name="①矢EBSカラム">#REF!</definedName>
+    <definedName name="①矢項目名" localSheetId="2">#REF!</definedName>
     <definedName name="①矢項目名">#REF!</definedName>
+    <definedName name="②EBSカラム" localSheetId="2">#REF!</definedName>
     <definedName name="②EBSカラム">#REF!</definedName>
+    <definedName name="②NO" localSheetId="2">#REF!</definedName>
     <definedName name="②NO">#REF!</definedName>
+    <definedName name="②営業" localSheetId="2">#REF!</definedName>
     <definedName name="②営業">#REF!</definedName>
+    <definedName name="②項目名" localSheetId="2">#REF!</definedName>
     <definedName name="②項目名">#REF!</definedName>
+    <definedName name="②説明" localSheetId="2">#REF!</definedName>
     <definedName name="②説明">#REF!</definedName>
+    <definedName name="②入力" localSheetId="2">#REF!</definedName>
     <definedName name="②入力">#REF!</definedName>
+    <definedName name="②矢EBSカラム" localSheetId="2">#REF!</definedName>
     <definedName name="②矢EBSカラム">#REF!</definedName>
+    <definedName name="②矢項目名" localSheetId="2">#REF!</definedName>
     <definedName name="②矢項目名">#REF!</definedName>
+    <definedName name="③NO" localSheetId="2">#REF!</definedName>
     <definedName name="③NO">#REF!</definedName>
+    <definedName name="③項目名" localSheetId="2">#REF!</definedName>
     <definedName name="③項目名">#REF!</definedName>
+    <definedName name="③説明" localSheetId="2">#REF!</definedName>
     <definedName name="③説明">#REF!</definedName>
+    <definedName name="③入力" localSheetId="2">#REF!</definedName>
     <definedName name="③入力">#REF!</definedName>
+    <definedName name="④NO" localSheetId="2">#REF!</definedName>
     <definedName name="④NO">#REF!</definedName>
+    <definedName name="④営業" localSheetId="2">#REF!</definedName>
     <definedName name="④営業">#REF!</definedName>
+    <definedName name="④営業NA" localSheetId="2">#REF!</definedName>
     <definedName name="④営業NA">#REF!</definedName>
+    <definedName name="④項目名" localSheetId="2">#REF!</definedName>
     <definedName name="④項目名">#REF!</definedName>
+    <definedName name="④説明" localSheetId="2">#REF!</definedName>
     <definedName name="④説明">#REF!</definedName>
+    <definedName name="④入力" localSheetId="2">#REF!</definedName>
     <definedName name="④入力">#REF!</definedName>
+    <definedName name="⑤NO" localSheetId="2">#REF!</definedName>
     <definedName name="⑤NO">#REF!</definedName>
+    <definedName name="⑤項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑤項目名">#REF!</definedName>
+    <definedName name="⑤説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑤説明">#REF!</definedName>
+    <definedName name="⑤入力" localSheetId="2">#REF!</definedName>
     <definedName name="⑤入力">#REF!</definedName>
+    <definedName name="⑥NO" localSheetId="2">#REF!</definedName>
     <definedName name="⑥NO">#REF!</definedName>
+    <definedName name="⑥項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑥項目名">#REF!</definedName>
+    <definedName name="⑥説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑥説明">#REF!</definedName>
+    <definedName name="⑥入力" localSheetId="2">#REF!</definedName>
     <definedName name="⑥入力">#REF!</definedName>
+    <definedName name="⑦項番" localSheetId="2">#REF!</definedName>
     <definedName name="⑦項番">#REF!</definedName>
+    <definedName name="⑦項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑦項目名">#REF!</definedName>
+    <definedName name="⑦売買DB項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑦売買DB項目名">#REF!</definedName>
+    <definedName name="⑦売買DB説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑦売買DB説明">#REF!</definedName>
+    <definedName name="⑧EBSカラム" localSheetId="2">#REF!</definedName>
     <definedName name="⑧EBSカラム">#REF!</definedName>
+    <definedName name="⑧EBSテブル" localSheetId="2">#REF!</definedName>
     <definedName name="⑧EBSテブル">#REF!</definedName>
+    <definedName name="⑧ア項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑧ア項目名">#REF!</definedName>
+    <definedName name="⑧ア説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑧ア説明">#REF!</definedName>
+    <definedName name="⑧項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑧項目名">#REF!</definedName>
+    <definedName name="⑧請求アトリ" localSheetId="2">#REF!</definedName>
     <definedName name="⑧請求アトリ">#REF!</definedName>
+    <definedName name="⑧説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑧説明">#REF!</definedName>
+    <definedName name="⑨EBS" localSheetId="2">#REF!</definedName>
     <definedName name="⑨EBS">#REF!</definedName>
+    <definedName name="⑨NO" localSheetId="2">#REF!</definedName>
     <definedName name="⑨NO">#REF!</definedName>
+    <definedName name="⑨項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑨項目名">#REF!</definedName>
+    <definedName name="⑨削除" localSheetId="2">#REF!</definedName>
     <definedName name="⑨削除">#REF!</definedName>
+    <definedName name="⑨成項目名" localSheetId="2">#REF!</definedName>
     <definedName name="⑨成項目名">#REF!</definedName>
+    <definedName name="⑨説明" localSheetId="2">#REF!</definedName>
     <definedName name="⑨説明">#REF!</definedName>
+    <definedName name="⑨入力" localSheetId="2">#REF!</definedName>
     <definedName name="⑨入力">#REF!</definedName>
     <definedName name="a" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="a" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aaa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aaa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aaa">#REF!</definedName>
+    <definedName name="AAAAA" localSheetId="2">#REF!</definedName>
     <definedName name="AAAAA">#REF!</definedName>
+    <definedName name="ACCOUNTEDPERIODTYPE1" localSheetId="2">#REF!</definedName>
     <definedName name="ACCOUNTEDPERIODTYPE1">#REF!</definedName>
+    <definedName name="ACCOUNTSEGMENT1" localSheetId="2">#REF!</definedName>
     <definedName name="ACCOUNTSEGMENT1">#REF!</definedName>
     <definedName name="AccountType">'[5]LOV''s'!$K$2:$K$37</definedName>
     <definedName name="AccountTypes">[6]LOV!$E$6:$E$8</definedName>
+    <definedName name="aplcode" localSheetId="2">#REF!</definedName>
     <definedName name="aplcode">#REF!</definedName>
+    <definedName name="aplname" localSheetId="2">#REF!</definedName>
     <definedName name="aplname">#REF!</definedName>
+    <definedName name="APPSUSERNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="APPSUSERNAME1">#REF!</definedName>
+    <definedName name="AW" localSheetId="2">#REF!</definedName>
     <definedName name="AW">#REF!</definedName>
     <definedName name="AX" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="AX" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="AX" hidden="1">#REF!</definedName>
     <definedName name="AZ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="AZ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="AZ" hidden="1">#REF!</definedName>
+    <definedName name="b" localSheetId="2">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="BankBranchTypes">[6]LOV!$K$2:$K$5</definedName>
+    <definedName name="BB" localSheetId="2">#REF!</definedName>
     <definedName name="BB">#REF!</definedName>
+    <definedName name="BUDGETCURRENCYCODE1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETCURRENCYCODE1">#REF!</definedName>
+    <definedName name="BUDGETDECIMALPLACES1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETDECIMALPLACES1">#REF!</definedName>
+    <definedName name="BUDGETENTITYID1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETENTITYID1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHCORRESPONDING1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHCORRESPONDING1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHINCACTUALS1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHINCACTUALS1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHINCBUDGETS1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHINCBUDGETS1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHINCTITLES1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHINCTITLES1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHINCVARIANCES1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHINCVARIANCES1">#REF!</definedName>
+    <definedName name="BUDGETGRAPHSTYLE1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETGRAPHSTYLE1">#REF!</definedName>
+    <definedName name="BUDGETHEADINGSBACKCOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETHEADINGSBACKCOLOUR1">#REF!</definedName>
+    <definedName name="BUDGETHEADINGSFORECOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETHEADINGSFORECOLOUR1">#REF!</definedName>
+    <definedName name="BUDGETNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETNAME1">#REF!</definedName>
+    <definedName name="BUDGETORG1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETORG1">#REF!</definedName>
+    <definedName name="BUDGETORGFROZEN1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETORGFROZEN1">#REF!</definedName>
+    <definedName name="BUDGETOUTPUTOPTION1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETOUTPUTOPTION1">#REF!</definedName>
+    <definedName name="BUDGETPASSWORDREQUIREDFLAG1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETPASSWORDREQUIREDFLAG1">#REF!</definedName>
+    <definedName name="BUDGETSHOWCRITERIASHEET1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETSHOWCRITERIASHEET1">#REF!</definedName>
+    <definedName name="BUDGETSTATUS1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETSTATUS1">#REF!</definedName>
+    <definedName name="BUDGETTITLEBACKCOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETTITLEBACKCOLOUR1">#REF!</definedName>
+    <definedName name="BUDGETTITLEBORDERCOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETTITLEBORDERCOLOUR1">#REF!</definedName>
+    <definedName name="BUDGETTITLEFORECOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETTITLEFORECOLOUR1">#REF!</definedName>
+    <definedName name="BUDGETVALUESWIDTH1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETVALUESWIDTH1">#REF!</definedName>
+    <definedName name="BUDGETVERSIONID1" localSheetId="2">#REF!</definedName>
     <definedName name="BUDGETVERSIONID1">#REF!</definedName>
+    <definedName name="CARGO" localSheetId="2">[7]!CARGO</definedName>
     <definedName name="CARGO">[7]!CARGO</definedName>
+    <definedName name="CC" localSheetId="2">#REF!</definedName>
     <definedName name="CC">#REF!</definedName>
+    <definedName name="CHARTOFACCOUNTSID1" localSheetId="2">#REF!</definedName>
     <definedName name="CHARTOFACCOUNTSID1">#REF!</definedName>
+    <definedName name="ck2." localSheetId="2">#REF!</definedName>
     <definedName name="ck2.">#REF!</definedName>
+    <definedName name="ColumnAttributes1" localSheetId="2">#REF!</definedName>
     <definedName name="ColumnAttributes1">#REF!</definedName>
+    <definedName name="ColumnHeadings1" localSheetId="2">#REF!</definedName>
     <definedName name="ColumnHeadings1">#REF!</definedName>
+    <definedName name="Command_Click" localSheetId="2">[8]!Command_Click</definedName>
     <definedName name="Command_Click">[8]!Command_Click</definedName>
+    <definedName name="CONNECTSTRING1" localSheetId="2">#REF!</definedName>
     <definedName name="CONNECTSTRING1">#REF!</definedName>
     <definedName name="Countries">[6]LOV!$A$2:$A$253</definedName>
+    <definedName name="CREATEGRAPH1" localSheetId="2">#REF!</definedName>
     <definedName name="CREATEGRAPH1">#REF!</definedName>
+    <definedName name="CREATESUMMARYJNLS1" localSheetId="2">#REF!</definedName>
     <definedName name="CREATESUMMARYJNLS1">#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Criteria">#REF!</definedName>
+    <definedName name="CRITERIACOLUMN1" localSheetId="2">#REF!</definedName>
     <definedName name="CRITERIACOLUMN1">#REF!</definedName>
+    <definedName name="CRP3に無いデータを抽出" localSheetId="2">#REF!</definedName>
     <definedName name="CRP3に無いデータを抽出">#REF!</definedName>
     <definedName name="CurrencyCodes">[6]LOV!$I$2:$I$227</definedName>
+    <definedName name="D" localSheetId="2">#REF!</definedName>
     <definedName name="D">#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="2">[9]PR!#REF!</definedName>
     <definedName name="_xlnm.Database">[9]PR!#REF!</definedName>
+    <definedName name="DBNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="DBNAME1">#REF!</definedName>
+    <definedName name="DBUSERNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="DBUSERNAME1">#REF!</definedName>
+    <definedName name="DB名" localSheetId="2">#REF!</definedName>
     <definedName name="DB名">#REF!</definedName>
+    <definedName name="DDDDD" localSheetId="2">#REF!</definedName>
     <definedName name="DDDDD">#REF!</definedName>
+    <definedName name="DELETELOGICTYPE1" localSheetId="2">#REF!</definedName>
     <definedName name="DELETELOGICTYPE1">#REF!</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ConditionSegmentName_AccountSin_0" hidden="1">[10]_ADFDI_LOV!$C$8:$G$8</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ConditionSegmentName_AccountSin_1" hidden="1">[11]_ADFDI_LOV!$C$12:$T$12</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ValidationSegmentName_AccountSin_0" hidden="1">[10]_ADFDI_LOV!$C$10:$G$10</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ValidationSegmentName_AccountSin_1" hidden="1">[11]_ADFDI_LOV!$C$14:$T$14</definedName>
     <definedName name="DOM">[12]ドメイン定義書!$B$10:$AD$65500</definedName>
+    <definedName name="ENDPERIODNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="ENDPERIODNAME1">#REF!</definedName>
+    <definedName name="ENDPERIODNUM1" localSheetId="2">#REF!</definedName>
     <definedName name="ENDPERIODNUM1">#REF!</definedName>
+    <definedName name="ENID" localSheetId="2">#REF!</definedName>
     <definedName name="ENID">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Extract">#REF!</definedName>
+    <definedName name="ｆ" localSheetId="2">'[13]６（過去）'!#REF!</definedName>
     <definedName name="ｆ">'[13]６（過去）'!#REF!</definedName>
+    <definedName name="FFAPPCOLNAME1_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME1_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME10_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME10_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME11_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME11_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME12_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME12_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME2_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME2_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME3_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME3_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME4_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME4_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME5_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME5_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME6_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME6_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME7_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME7_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME8_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME8_1">#REF!</definedName>
+    <definedName name="FFAPPCOLNAME9_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFAPPCOLNAME9_1">#REF!</definedName>
+    <definedName name="fff" localSheetId="2">#REF!</definedName>
     <definedName name="fff">#REF!</definedName>
+    <definedName name="FFSEGDESC1_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC1_1">#REF!</definedName>
+    <definedName name="FFSEGDESC10_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC10_1">#REF!</definedName>
+    <definedName name="FFSEGDESC11_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC11_1">#REF!</definedName>
+    <definedName name="FFSEGDESC12_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC12_1">#REF!</definedName>
+    <definedName name="FFSEGDESC2_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC2_1">#REF!</definedName>
+    <definedName name="FFSEGDESC3_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC3_1">#REF!</definedName>
+    <definedName name="FFSEGDESC4_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC4_1">#REF!</definedName>
+    <definedName name="FFSEGDESC5_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC5_1">#REF!</definedName>
+    <definedName name="FFSEGDESC6_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC6_1">#REF!</definedName>
+    <definedName name="FFSEGDESC7_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC7_1">#REF!</definedName>
+    <definedName name="FFSEGDESC8_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC8_1">#REF!</definedName>
+    <definedName name="FFSEGDESC9_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGDESC9_1">#REF!</definedName>
+    <definedName name="FFSEGMENT1_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT1_1">#REF!</definedName>
+    <definedName name="FFSEGMENT10_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT10_1">#REF!</definedName>
+    <definedName name="FFSEGMENT11_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT11_1">#REF!</definedName>
+    <definedName name="FFSEGMENT12_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT12_1">#REF!</definedName>
+    <definedName name="FFSEGMENT2_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT2_1">#REF!</definedName>
+    <definedName name="FFSEGMENT3_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT3_1">#REF!</definedName>
+    <definedName name="FFSEGMENT4_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT4_1">#REF!</definedName>
+    <definedName name="FFSEGMENT5_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT5_1">#REF!</definedName>
+    <definedName name="FFSEGMENT6_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT6_1">#REF!</definedName>
+    <definedName name="FFSEGMENT7_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT7_1">#REF!</definedName>
+    <definedName name="FFSEGMENT8_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT8_1">#REF!</definedName>
+    <definedName name="FFSEGMENT9_1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGMENT9_1">#REF!</definedName>
+    <definedName name="FFSEGSEPARATOR1" localSheetId="2">#REF!</definedName>
     <definedName name="FFSEGSEPARATOR1">#REF!</definedName>
+    <definedName name="FIELDNAMECOLUMN1" localSheetId="2">#REF!</definedName>
     <definedName name="FIELDNAMECOLUMN1">#REF!</definedName>
+    <definedName name="FIELDNAMEROW1" localSheetId="2">#REF!</definedName>
     <definedName name="FIELDNAMEROW1">#REF!</definedName>
+    <definedName name="FIRSTDATAROW1" localSheetId="2">#REF!</definedName>
     <definedName name="FIRSTDATAROW1">#REF!</definedName>
+    <definedName name="FND" localSheetId="2">#REF!</definedName>
     <definedName name="FND">#REF!</definedName>
+    <definedName name="FNDNAM1" localSheetId="2">#REF!</definedName>
     <definedName name="FNDNAM1">#REF!</definedName>
+    <definedName name="FNDUSERID1" localSheetId="2">#REF!</definedName>
     <definedName name="FNDUSERID1">#REF!</definedName>
+    <definedName name="FUNCTIONALCURRENCY1" localSheetId="2">#REF!</definedName>
     <definedName name="FUNCTIONALCURRENCY1">#REF!</definedName>
+    <definedName name="ggg" localSheetId="2">#REF!</definedName>
     <definedName name="ggg">#REF!</definedName>
+    <definedName name="GWYUID1" localSheetId="2">#REF!</definedName>
     <definedName name="GWYUID1">#REF!</definedName>
     <definedName name="ＧＷメッセージ一覧" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="ＧＷメッセージ一覧" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ＧＷメッセージ一覧" hidden="1">#REF!</definedName>
     <definedName name="H" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="H" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="H" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="hani" localSheetId="2">[14]DDICT!#REF!</definedName>
     <definedName name="hani">[14]DDICT!#REF!</definedName>
+    <definedName name="hani2" localSheetId="2">[14]DDICT!#REF!</definedName>
     <definedName name="hani2">[14]DDICT!#REF!</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
     <definedName name="HTML_Control" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_copy" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control_copy" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_copy" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_Copy2" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control_Copy2" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_Copy2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -646,21 +1186,34 @@
     <definedName name="HTML1_9" hidden="1">"OBM Program Office"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
     <definedName name="i" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="i" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="i" hidden="1">#REF!</definedName>
+    <definedName name="IBM" localSheetId="2">#REF!</definedName>
     <definedName name="IBM">#REF!</definedName>
+    <definedName name="IMPORTDFF1" localSheetId="2">#REF!</definedName>
     <definedName name="IMPORTDFF1">#REF!</definedName>
+    <definedName name="JavaAppl" localSheetId="2">#REF!</definedName>
     <definedName name="JavaAppl">#REF!</definedName>
+    <definedName name="JavaGUI" localSheetId="2">#REF!</definedName>
     <definedName name="JavaGUI">#REF!</definedName>
     <definedName name="ｋ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ｋ" hidden="1">#REF!</definedName>
     <definedName name="kk" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="kk" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="kk" hidden="1">#REF!</definedName>
+    <definedName name="LABELTEXTCOLUMN1" localSheetId="2">#REF!</definedName>
     <definedName name="LABELTEXTCOLUMN1">#REF!</definedName>
+    <definedName name="LABELTEXTROW1" localSheetId="2">#REF!</definedName>
     <definedName name="LABELTEXTROW1">#REF!</definedName>
     <definedName name="LOV_DesktopGlAccountsCrossValRulesPageDef_AccountSin" hidden="1">[10]_ADFDI_LOV!$D$2:$E$2</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL004" hidden="1">[15]_ADFDI_LOV!$C$2:$E$2</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL021" hidden="1">[15]_ADFDI_LOV!$C$4:$AP$4</definedName>
@@ -677,271 +1230,485 @@
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_FuelType" hidden="1">[18]_ADFDI_LOV!$D$6:$G$6</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleCategory" hidden="1">[19]_ADFDI_LOV!$D$2:$F$2</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleType" hidden="1">[18]_ADFDI_LOV!$D$4:$I$4</definedName>
+    <definedName name="Module1.MOTOR" localSheetId="2">[7]!Module1.MOTOR</definedName>
     <definedName name="Module1.MOTOR">[7]!Module1.MOTOR</definedName>
+    <definedName name="MOTOR" localSheetId="2">[20]!MOTOR</definedName>
     <definedName name="MOTOR">[20]!MOTOR</definedName>
     <definedName name="mrc" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="mrc" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="mrc" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="NameJPN">"テキスト 116"</definedName>
+    <definedName name="NOOFFFSEGMENTS1" localSheetId="2">#REF!</definedName>
     <definedName name="NOOFFFSEGMENTS1">#REF!</definedName>
+    <definedName name="NOOFPERIODS1" localSheetId="2">#REF!</definedName>
     <definedName name="NOOFPERIODS1">#REF!</definedName>
+    <definedName name="NOTNULL" localSheetId="2">#REF!</definedName>
     <definedName name="NOTNULL">#REF!</definedName>
+    <definedName name="NUMBEROFDETAILFIELDS1" localSheetId="2">#REF!</definedName>
     <definedName name="NUMBEROFDETAILFIELDS1">#REF!</definedName>
+    <definedName name="NUMBEROFHEADERFIELDS1" localSheetId="2">#REF!</definedName>
     <definedName name="NUMBEROFHEADERFIELDS1">#REF!</definedName>
+    <definedName name="ODBCDATASOURCE1" localSheetId="2">#REF!</definedName>
     <definedName name="ODBCDATASOURCE1">#REF!</definedName>
     <definedName name="ｐ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="ｐ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ｐ" hidden="1">#REF!</definedName>
+    <definedName name="PERIODSETNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="PERIODSETNAME1">#REF!</definedName>
+    <definedName name="PERIODYEAR1" localSheetId="2">#REF!</definedName>
     <definedName name="PERIODYEAR1">#REF!</definedName>
     <definedName name="PGMName">"テキスト 114"</definedName>
+    <definedName name="POSTERRORSTOSUSP1" localSheetId="2">#REF!</definedName>
     <definedName name="POSTERRORSTOSUSP1">#REF!</definedName>
     <definedName name="PPｻｲｽﾞ">[21]外部ﾃﾞｨｽｸ!$G$1</definedName>
     <definedName name="PP数">[21]外部ﾃﾞｨｽｸ!$H$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
+    <definedName name="Print_Area2" localSheetId="2">#REF!</definedName>
     <definedName name="Print_Area2">#REF!</definedName>
+    <definedName name="Print_Area3" localSheetId="2">#REF!</definedName>
     <definedName name="Print_Area3">#REF!</definedName>
+    <definedName name="Print_Area4" localSheetId="2">#REF!</definedName>
     <definedName name="Print_Area4">#REF!</definedName>
+    <definedName name="Pキーワード" localSheetId="2">#REF!</definedName>
     <definedName name="Pキーワード">#REF!</definedName>
+    <definedName name="P実体候補" localSheetId="2">#REF!</definedName>
     <definedName name="P実体候補">#REF!</definedName>
+    <definedName name="ｑ" localSheetId="2">#REF!</definedName>
     <definedName name="ｑ">#REF!</definedName>
+    <definedName name="READONLYBACKCOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="READONLYBACKCOLOUR1">#REF!</definedName>
+    <definedName name="READWRITEBACKCOLOUR1" localSheetId="2">#REF!</definedName>
     <definedName name="READWRITEBACKCOLOUR1">#REF!</definedName>
+    <definedName name="ReportTitle1" localSheetId="2">#REF!</definedName>
     <definedName name="ReportTitle1">#REF!</definedName>
+    <definedName name="REQUIREBUDGETJOURNALSFLAG1" localSheetId="2">#REF!</definedName>
     <definedName name="REQUIREBUDGETJOURNALSFLAG1">#REF!</definedName>
+    <definedName name="RESPONSIBILITYAPPLICATIONID1" localSheetId="2">#REF!</definedName>
     <definedName name="RESPONSIBILITYAPPLICATIONID1">#REF!</definedName>
+    <definedName name="RESPONSIBILITYID1" localSheetId="2">#REF!</definedName>
     <definedName name="RESPONSIBILITYID1">#REF!</definedName>
+    <definedName name="RESPONSIBILITYNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="RESPONSIBILITYNAME1">#REF!</definedName>
+    <definedName name="RowDetails1" localSheetId="2">#REF!</definedName>
     <definedName name="RowDetails1">#REF!</definedName>
+    <definedName name="ROWSTOUPLOAD1" localSheetId="2">#REF!</definedName>
     <definedName name="ROWSTOUPLOAD1">#REF!</definedName>
     <definedName name="s" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="s" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="SEG1_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG1_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG1_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG1_FROM1">#REF!</definedName>
+    <definedName name="SEG1_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG1_SORT1">#REF!</definedName>
+    <definedName name="SEG1_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG1_TO1">#REF!</definedName>
+    <definedName name="SEG10_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG10_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG10_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG10_FROM1">#REF!</definedName>
+    <definedName name="SEG10_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG10_SORT1">#REF!</definedName>
+    <definedName name="SEG10_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG10_TO1">#REF!</definedName>
+    <definedName name="SEG11_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG11_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG11_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG11_FROM1">#REF!</definedName>
+    <definedName name="SEG11_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG11_SORT1">#REF!</definedName>
+    <definedName name="SEG11_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG11_TO1">#REF!</definedName>
+    <definedName name="SEG12_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG12_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG12_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG12_FROM1">#REF!</definedName>
+    <definedName name="SEG12_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG12_SORT1">#REF!</definedName>
+    <definedName name="SEG12_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG12_TO1">#REF!</definedName>
+    <definedName name="SEG2_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG2_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG2_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG2_FROM1">#REF!</definedName>
+    <definedName name="SEG2_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG2_SORT1">#REF!</definedName>
+    <definedName name="SEG2_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG2_TO1">#REF!</definedName>
+    <definedName name="SEG3_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG3_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG3_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG3_FROM1">#REF!</definedName>
+    <definedName name="SEG3_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG3_SORT1">#REF!</definedName>
+    <definedName name="SEG3_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG3_TO1">#REF!</definedName>
+    <definedName name="SEG4_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG4_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG4_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG4_FROM1">#REF!</definedName>
+    <definedName name="SEG4_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG4_SORT1">#REF!</definedName>
+    <definedName name="SEG4_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG4_TO1">#REF!</definedName>
+    <definedName name="SEG5_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG5_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG5_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG5_FROM1">#REF!</definedName>
+    <definedName name="SEG5_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG5_SORT1">#REF!</definedName>
+    <definedName name="SEG5_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG5_TO1">#REF!</definedName>
+    <definedName name="SEG6_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG6_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG6_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG6_FROM1">#REF!</definedName>
+    <definedName name="SEG6_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG6_SORT1">#REF!</definedName>
+    <definedName name="SEG6_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG6_TO1">#REF!</definedName>
+    <definedName name="SEG7_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG7_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG7_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG7_FROM1">#REF!</definedName>
+    <definedName name="SEG7_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG7_SORT1">#REF!</definedName>
+    <definedName name="SEG7_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG7_TO1">#REF!</definedName>
+    <definedName name="SEG8_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG8_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG8_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG8_FROM1">#REF!</definedName>
+    <definedName name="SEG8_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG8_SORT1">#REF!</definedName>
+    <definedName name="SEG8_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG8_TO1">#REF!</definedName>
+    <definedName name="SEG9_DIRECTION1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG9_DIRECTION1">#REF!</definedName>
+    <definedName name="SEG9_FROM1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG9_FROM1">#REF!</definedName>
+    <definedName name="SEG9_SORT1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG9_SORT1">#REF!</definedName>
+    <definedName name="SEG9_TO1" localSheetId="2">#REF!</definedName>
     <definedName name="SEG9_TO1">#REF!</definedName>
+    <definedName name="Set.of.Books" localSheetId="2">#REF!</definedName>
     <definedName name="Set.of.Books">#REF!</definedName>
+    <definedName name="SETOFBOOKSID1" localSheetId="2">#REF!</definedName>
     <definedName name="SETOFBOOKSID1">#REF!</definedName>
+    <definedName name="SETOFBOOKSNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="SETOFBOOKSNAME1">#REF!</definedName>
     <definedName name="sheet1" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="sheet1" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="sheet1" hidden="1">#REF!</definedName>
+    <definedName name="Sheet121" localSheetId="2">#REF!</definedName>
     <definedName name="Sheet121">#REF!</definedName>
     <definedName name="Sheet2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Sheet2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="Sheet2" hidden="1">#REF!</definedName>
+    <definedName name="SheetT" localSheetId="2">#REF!</definedName>
     <definedName name="SheetT">#REF!</definedName>
+    <definedName name="SOURCE" localSheetId="2">#REF!</definedName>
     <definedName name="SOURCE">#REF!</definedName>
     <definedName name="SPEC_CALENDAR_TYPE">[22]LOV!$J$4:$J$7</definedName>
     <definedName name="sss" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="sss" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="sss" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="st_descflex" localSheetId="2">#REF!</definedName>
     <definedName name="st_descflex">#REF!</definedName>
+    <definedName name="STARTBUDGETPOST1" localSheetId="2">#REF!</definedName>
     <definedName name="STARTBUDGETPOST1">#REF!</definedName>
+    <definedName name="STARTJOURNALIMPORT1" localSheetId="2">#REF!</definedName>
     <definedName name="STARTJOURNALIMPORT1">#REF!</definedName>
+    <definedName name="STARTPERIODNAME1" localSheetId="2">#REF!</definedName>
     <definedName name="STARTPERIODNAME1">#REF!</definedName>
+    <definedName name="STARTPERIODNUM1" localSheetId="2">#REF!</definedName>
     <definedName name="STARTPERIODNUM1">#REF!</definedName>
     <definedName name="t" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="t" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="t" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="TABLE_ENT" localSheetId="2">#REF!</definedName>
     <definedName name="TABLE_ENT">#REF!</definedName>
+    <definedName name="TABLE_NAME" localSheetId="2">#REF!</definedName>
     <definedName name="TABLE_NAME">#REF!</definedName>
+    <definedName name="takezaaw" localSheetId="2">#REF!</definedName>
     <definedName name="takezaaw">#REF!</definedName>
+    <definedName name="TEMPLATENUMBER1" localSheetId="2">#REF!</definedName>
     <definedName name="TEMPLATENUMBER1">#REF!</definedName>
+    <definedName name="TEMPLATESTYLE1" localSheetId="2">#REF!</definedName>
     <definedName name="TEMPLATESTYLE1">#REF!</definedName>
+    <definedName name="TEMPLATETYPE1" localSheetId="2">#REF!</definedName>
     <definedName name="TEMPLATETYPE1">#REF!</definedName>
     <definedName name="TEST" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="TEST" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="TEST" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="test3" localSheetId="2">#REF!</definedName>
     <definedName name="test3">#REF!</definedName>
     <definedName name="TOL_TYPE">[22]LOV!$J$12:$J$13</definedName>
+    <definedName name="tsnge" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="tsnge" hidden="1">#REF!</definedName>
+    <definedName name="UI" localSheetId="2">#REF!</definedName>
     <definedName name="UI">#REF!</definedName>
+    <definedName name="UPDATELOGICTYPE1" localSheetId="2">#REF!</definedName>
     <definedName name="UPDATELOGICTYPE1">#REF!</definedName>
     <definedName name="VV" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="VV" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="VV" hidden="1">#REF!</definedName>
     <definedName name="ｗ" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="ｗ" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ｗ" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="wrn.仕様書表紙." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="wrn.仕様書表紙." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="XX" localSheetId="2">#REF!</definedName>
     <definedName name="XX">#REF!</definedName>
     <definedName name="YesNo">[6]LOV!$E$2:$E$3</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" hidden="1">#REF!</definedName>
+    <definedName name="ｚｚ１" localSheetId="2">#REF!</definedName>
     <definedName name="ｚｚ１">#REF!</definedName>
     <definedName name="あ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
     <definedName name="あ2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あ2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ2" hidden="1">#REF!</definedName>
     <definedName name="あｓｆ">[23]Sheet2!$B$8:$B$11</definedName>
     <definedName name="あああ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あああ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あああ" hidden="1">#REF!</definedName>
     <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="い" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="い">#REF!</definedName>
     <definedName name="い2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="い2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="い2" hidden="1">#REF!</definedName>
     <definedName name="う" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="う" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="う">'[24]６（過去）'!#REF!</definedName>
     <definedName name="う2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="う2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="う2" hidden="1">#REF!</definedName>
     <definedName name="ええ" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="ええ" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ええ" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="お" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="お" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="お" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="オプション確認結果" localSheetId="2">#REF!</definedName>
     <definedName name="オプション確認結果">#REF!</definedName>
+    <definedName name="キーワード" localSheetId="2">#REF!</definedName>
     <definedName name="キーワード">#REF!</definedName>
+    <definedName name="キーワード２" localSheetId="2">#REF!</definedName>
     <definedName name="キーワード２">#REF!</definedName>
+    <definedName name="コード体系" localSheetId="2">#REF!</definedName>
     <definedName name="コード体系">#REF!</definedName>
+    <definedName name="コンソール" localSheetId="2">#REF!</definedName>
     <definedName name="コンソール">#REF!</definedName>
+    <definedName name="サブシステム" localSheetId="2">[25]障害検出率!#REF!</definedName>
     <definedName name="サブシステム">[25]障害検出率!#REF!</definedName>
+    <definedName name="ｻﾌﾞｼｽﾃﾑ付与2" localSheetId="2">[26]担当者別ﾊﾞｯﾁ代表一覧!#REF!</definedName>
     <definedName name="ｻﾌﾞｼｽﾃﾑ付与2">[26]担当者別ﾊﾞｯﾁ代表一覧!#REF!</definedName>
+    <definedName name="サブシステム名" localSheetId="2">#REF!</definedName>
     <definedName name="サブシステム名">#REF!</definedName>
     <definedName name="サンプル" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="サンプル" hidden="1">#REF!</definedName>
+    <definedName name="システム名" localSheetId="2">#REF!</definedName>
     <definedName name="システム名">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" hidden="1">#REF!</definedName>
+    <definedName name="ち" localSheetId="2">#REF!</definedName>
     <definedName name="ち">#REF!</definedName>
+    <definedName name="チーム名" localSheetId="2">#REF!</definedName>
     <definedName name="チーム名">#REF!</definedName>
+    <definedName name="データ名" localSheetId="2">#REF!</definedName>
     <definedName name="データ名">#REF!</definedName>
+    <definedName name="と" localSheetId="2">#REF!</definedName>
     <definedName name="と">#REF!</definedName>
+    <definedName name="ペースト用" localSheetId="2">[27]パラメータ!#REF!</definedName>
     <definedName name="ペースト用">[27]パラメータ!#REF!</definedName>
     <definedName name="ま">[28]部支店・事務所!$D$2:$D$69</definedName>
+    <definedName name="リンク先セル色" localSheetId="2">[27]パラメータ!#REF!</definedName>
     <definedName name="リンク先セル色">[27]パラメータ!#REF!</definedName>
     <definedName name="安藤" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="安藤" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="安藤" hidden="1">#REF!</definedName>
+    <definedName name="案件名" localSheetId="2">#REF!</definedName>
     <definedName name="案件名">#REF!</definedName>
+    <definedName name="会社名" localSheetId="2">#REF!</definedName>
     <definedName name="会社名">#REF!</definedName>
+    <definedName name="開発_テストシステムHW合計" localSheetId="2">#REF!</definedName>
     <definedName name="開発_テストシステムHW合計">#REF!</definedName>
+    <definedName name="開発単位" localSheetId="2">#REF!</definedName>
     <definedName name="開発単位">#REF!</definedName>
     <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
     <definedName name="関連表2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表2" hidden="1">#REF!</definedName>
+    <definedName name="基本キー" localSheetId="2">#REF!</definedName>
     <definedName name="基本キー">#REF!</definedName>
+    <definedName name="既存システム" localSheetId="2">#REF!</definedName>
     <definedName name="既存システム">#REF!</definedName>
+    <definedName name="既存勘定" localSheetId="2">#REF!</definedName>
     <definedName name="既存勘定">#REF!</definedName>
+    <definedName name="既存分類" localSheetId="2">#REF!</definedName>
     <definedName name="既存分類">#REF!</definedName>
     <definedName name="機能分野">[29]値!$C$2:$C$6</definedName>
+    <definedName name="経費" localSheetId="2">#REF!</definedName>
     <definedName name="経費">#REF!</definedName>
+    <definedName name="現地入力者" localSheetId="2">#REF!</definedName>
     <definedName name="現地入力者">#REF!</definedName>
+    <definedName name="現地認証者" localSheetId="2">#REF!</definedName>
     <definedName name="現地認証者">#REF!</definedName>
+    <definedName name="個人の状態遷移" localSheetId="2">#REF!</definedName>
     <definedName name="個人の状態遷移">#REF!</definedName>
+    <definedName name="顧客" localSheetId="2">#REF!</definedName>
     <definedName name="顧客">#REF!</definedName>
     <definedName name="交換５社コード">[30]コード!$A$1:$C$65536</definedName>
+    <definedName name="更新者" localSheetId="2">#REF!</definedName>
     <definedName name="更新者">#REF!</definedName>
+    <definedName name="更新日" localSheetId="2">#REF!</definedName>
     <definedName name="更新日">#REF!</definedName>
+    <definedName name="行長" localSheetId="2">#REF!</definedName>
     <definedName name="行長">#REF!</definedName>
+    <definedName name="購買717" localSheetId="2">#REF!</definedName>
     <definedName name="購買717">#REF!</definedName>
+    <definedName name="購買717営業" localSheetId="2">#REF!</definedName>
     <definedName name="購買717営業">#REF!</definedName>
+    <definedName name="項目ID" localSheetId="2">#REF!</definedName>
     <definedName name="項目ID">#REF!</definedName>
+    <definedName name="項目No" localSheetId="2">#REF!</definedName>
     <definedName name="項目No">#REF!</definedName>
+    <definedName name="項目名" localSheetId="2">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
+    <definedName name="作成者" localSheetId="2">#REF!</definedName>
     <definedName name="作成者">#REF!</definedName>
+    <definedName name="作成日" localSheetId="2">#REF!</definedName>
     <definedName name="作成日">#REF!</definedName>
     <definedName name="作成日_JOB">[31]JOBID!$A$2:$A$197</definedName>
     <definedName name="作成日_代表">[31]代表ID!$A$2:$A$57</definedName>
+    <definedName name="索引1" localSheetId="2">#REF!</definedName>
     <definedName name="索引1">#REF!</definedName>
+    <definedName name="索引2" localSheetId="2">#REF!</definedName>
     <definedName name="索引2">#REF!</definedName>
+    <definedName name="索引3" localSheetId="2">#REF!</definedName>
     <definedName name="索引3">#REF!</definedName>
+    <definedName name="索引4" localSheetId="2">#REF!</definedName>
     <definedName name="索引4">#REF!</definedName>
+    <definedName name="索引5" localSheetId="2">#REF!</definedName>
     <definedName name="索引5">#REF!</definedName>
+    <definedName name="索引6" localSheetId="2">#REF!</definedName>
     <definedName name="索引6">#REF!</definedName>
+    <definedName name="索引7" localSheetId="2">#REF!</definedName>
     <definedName name="索引7">#REF!</definedName>
+    <definedName name="索引P" localSheetId="2">#REF!</definedName>
     <definedName name="索引P">#REF!</definedName>
+    <definedName name="仕訳ソース" localSheetId="2">'[13]６（過去）'!#REF!</definedName>
     <definedName name="仕訳ソース">'[13]６（過去）'!#REF!</definedName>
     <definedName name="仕様書" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="仕様書" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="仕様書" hidden="1">#REF!</definedName>
+    <definedName name="実体候補" localSheetId="2">#REF!</definedName>
     <definedName name="実体候補">#REF!</definedName>
+    <definedName name="実体候補２" localSheetId="2">#REF!</definedName>
     <definedName name="実体候補２">#REF!</definedName>
+    <definedName name="種類" localSheetId="2">#REF!</definedName>
     <definedName name="種類">#REF!</definedName>
+    <definedName name="種類番号" localSheetId="2">#REF!</definedName>
     <definedName name="種類番号">#REF!</definedName>
+    <definedName name="小数桁数" localSheetId="2">#REF!</definedName>
     <definedName name="小数桁数">#REF!</definedName>
     <definedName name="障害検出率_表範囲">[25]障害検出率!$B$25:$F$25,[25]障害検出率!$B$32:$F$35</definedName>
+    <definedName name="新世代_Ｍ_List" localSheetId="2">#REF!</definedName>
     <definedName name="新世代_Ｍ_List">#REF!</definedName>
+    <definedName name="成果物" localSheetId="2">#REF!</definedName>
     <definedName name="成果物">#REF!</definedName>
+    <definedName name="成果物２" localSheetId="2">#REF!</definedName>
     <definedName name="成果物２">#REF!</definedName>
+    <definedName name="正規化NO" localSheetId="2">#REF!</definedName>
     <definedName name="正規化NO">#REF!</definedName>
+    <definedName name="正規化項番" localSheetId="2">#REF!</definedName>
     <definedName name="正規化項番">#REF!</definedName>
+    <definedName name="正項目名" localSheetId="2">#REF!</definedName>
     <definedName name="正項目名">#REF!</definedName>
+    <definedName name="正種類" localSheetId="2">#REF!</definedName>
     <definedName name="正種類">#REF!</definedName>
+    <definedName name="正説明" localSheetId="2">#REF!</definedName>
     <definedName name="正説明">#REF!</definedName>
+    <definedName name="生産717" localSheetId="2">#REF!</definedName>
     <definedName name="生産717">#REF!</definedName>
+    <definedName name="生産717営業" localSheetId="2">#REF!</definedName>
     <definedName name="生産717営業">#REF!</definedName>
     <definedName name="組合員区分">[30]コード!$S$1:$X$65536</definedName>
     <definedName name="束原" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="束原" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="束原" hidden="1">#REF!</definedName>
+    <definedName name="属性" localSheetId="2">#REF!</definedName>
     <definedName name="属性">#REF!</definedName>
+    <definedName name="多摩合計" localSheetId="2">#REF!</definedName>
     <definedName name="多摩合計">#REF!</definedName>
+    <definedName name="多摩差引き" localSheetId="2">#REF!</definedName>
     <definedName name="多摩差引き">#REF!</definedName>
+    <definedName name="棚卸" localSheetId="2">#REF!</definedName>
     <definedName name="棚卸">#REF!</definedName>
+    <definedName name="単位" localSheetId="2">#REF!</definedName>
     <definedName name="単位">#REF!</definedName>
+    <definedName name="値セット" localSheetId="2">#REF!</definedName>
     <definedName name="値セット">#REF!</definedName>
+    <definedName name="値セットNEW" localSheetId="2">#REF!</definedName>
     <definedName name="値セットNEW">#REF!</definedName>
+    <definedName name="池尻合計" localSheetId="2">#REF!</definedName>
     <definedName name="池尻合計">#REF!</definedName>
+    <definedName name="池尻差引き" localSheetId="2">#REF!</definedName>
     <definedName name="池尻差引き">#REF!</definedName>
+    <definedName name="調整" localSheetId="2">#REF!</definedName>
     <definedName name="調整">#REF!</definedName>
+    <definedName name="導入時期" localSheetId="2">#REF!</definedName>
     <definedName name="導入時期">#REF!</definedName>
     <definedName name="導入時期う" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="導入時期う" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="導入時期う" hidden="1">#REF!</definedName>
+    <definedName name="倍率" localSheetId="2">#REF!</definedName>
     <definedName name="倍率">#REF!</definedName>
+    <definedName name="備考" localSheetId="2">#REF!</definedName>
     <definedName name="備考">#REF!</definedName>
+    <definedName name="標準ボタンを設定しない" localSheetId="2">[27]パラメータ!#REF!</definedName>
     <definedName name="標準ボタンを設定しない">[27]パラメータ!#REF!</definedName>
+    <definedName name="表ID" localSheetId="2">#REF!</definedName>
     <definedName name="表ID">#REF!</definedName>
+    <definedName name="表の備考" localSheetId="2">#REF!</definedName>
     <definedName name="表の備考">#REF!</definedName>
+    <definedName name="表名" localSheetId="2">#REF!</definedName>
     <definedName name="表名">#REF!</definedName>
+    <definedName name="付加ＦＦ" localSheetId="2">'[32]６（過去）'!#REF!</definedName>
     <definedName name="付加ＦＦ">'[32]６（過去）'!#REF!</definedName>
+    <definedName name="文書名" localSheetId="2">#REF!</definedName>
     <definedName name="文書名">#REF!</definedName>
+    <definedName name="保有件数" localSheetId="2">#REF!</definedName>
     <definedName name="保有件数">#REF!</definedName>
+    <definedName name="本社入力者" localSheetId="2">#REF!</definedName>
     <definedName name="本社入力者">#REF!</definedName>
+    <definedName name="本社認証者" localSheetId="2">#REF!</definedName>
     <definedName name="本社認証者">#REF!</definedName>
+    <definedName name="明細エリア" localSheetId="2">#REF!</definedName>
     <definedName name="明細エリア">#REF!</definedName>
+    <definedName name="有効桁数" localSheetId="2">#REF!</definedName>
     <definedName name="有効桁数">#REF!</definedName>
+    <definedName name="列長" localSheetId="2">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1471,11 +2238,87 @@
     <t>はい</t>
     <phoneticPr fontId="50"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>プロファイル・オプションの管理</t>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>設定および保守 &gt; 検索 &gt; プロファイル・オプションの管理</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB: プロファイル・オプション・レベル</t>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>有効</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>更新可能</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンカノウ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>製品</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>PO_TASK_ATTACHMENTS_BLOB</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>E_本稼動_19870 対応</t>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="40"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
@@ -1968,7 +2811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2277,6 +3120,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2472,7 +3328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2500,43 +3356,13 @@
     <xf numFmtId="0" fontId="54" fillId="16" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="63" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,8 +3371,8 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2554,52 +3380,15 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="43" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2629,27 +3418,103 @@
     <xf numFmtId="0" fontId="43" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="41" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="16" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="16" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="12" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="2" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2738,6 +3603,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11201,1188 +12071,1213 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:37" ht="12" thickBot="1"/>
+    <row r="2" spans="1:37" ht="12" thickBot="1">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="60" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="29">
+      <c r="A3" s="59">
         <v>44916</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="62" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
+      <c r="A4" s="60">
+        <v>45365</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="24"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="66"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="27"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="53"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="56"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="35"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="56"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="35"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="56"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="35"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="45"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="29"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="45"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="29"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="45"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="29"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="45"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="29"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="45"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="29"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="45"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="29"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="45"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="29"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="45"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="29"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="45"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="29"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="45"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="29"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="45"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="29"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="45"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="29"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="45"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="29"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="29"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="45"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="29"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="45"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="29"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="45"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="29"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="45"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="29"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="45"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="47"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="29"/>
+    </row>
+    <row r="30" spans="1:37" ht="12" thickBot="1">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="J28:AK28"/>
     <mergeCell ref="J29:AK29"/>
     <mergeCell ref="J30:AK30"/>
@@ -12399,52 +13294,31 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12457,20 +13331,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="3"/>
-    <col min="2" max="2" width="46.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="3"/>
+    <col min="2" max="2" width="46.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="3" customWidth="1"/>
     <col min="4" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="124.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="104.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.6640625" style="3"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="124.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="104.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -12478,7 +13350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.8">
+    <row r="3" spans="2:7" ht="21">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -13480,12 +14352,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B118:C118"/>
@@ -13496,6 +14362,270 @@
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
+  </mergeCells>
+  <phoneticPr fontId="40"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.625" style="3"/>
+    <col min="2" max="2" width="46.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="124.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="104.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="21">
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="5" customFormat="1">
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="8">
+        <v>45364</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <hyperlinks>
